--- a/case/case.xlsx
+++ b/case/case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -91,20 +91,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="BO2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">校验列：结果校验方法：
-传入校验方法的关键字，调用校验模块进行校验，后面的参数是要校验的内容，以键值对的方式写
-</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="BZ2" authorId="0">
       <text>
         <r>
@@ -119,139 +105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>weiwei:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-接口返回校验，校验上一个接口的返回数据，校验值retcode==0000,</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="W3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>weiwei:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-接口返回校验，校验上一个接口的返回数据，校验值retcode==0000,</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AH3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>weiwei:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-接口返回校验，校验上一个接口的返回数据，校验值retcode==0000,</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="AS3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>weiwei:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-接口返回校验，校验上一个接口的返回数据，校验值retcode==0000,</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>weiwei:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-接口返回校验，校验上一个接口的返回数据，校验值retcode==0000,</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="W4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>weiwei:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-接口返回校验，校验上一个接口的返回数据，校验值retcode==0000,</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AH4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -295,7 +149,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BD4" authorId="0">
+    <comment ref="AS6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -317,7 +171,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L5" authorId="0">
+    <comment ref="AS7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -339,7 +193,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W5" authorId="0">
+    <comment ref="AS8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -361,7 +215,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L6" authorId="0">
+    <comment ref="L9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -383,7 +237,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W6" authorId="0">
+    <comment ref="AS9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -405,7 +259,139 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS6" authorId="0">
+    <comment ref="AS11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>weiwei:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+接口返回校验，校验上一个接口的返回数据，校验值retcode==0000,</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AS12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>weiwei:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+接口返回校验，校验上一个接口的返回数据，校验值retcode==0000,</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CV12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>weiwei:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+接口返回校验，校验上一个接口的返回数据，校验值retcode==0000,</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AS13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>weiwei:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+接口返回校验，校验上一个接口的返回数据，校验值retcode==0000,</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BD13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>weiwei:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+接口返回校验，校验上一个接口的返回数据，校验值retcode==0000,</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AS14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>weiwei:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+接口返回校验，校验上一个接口的返回数据，校验值retcode==0000,</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CV14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -432,7 +418,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="251">
   <si>
     <t>是否执行</t>
   </si>
@@ -623,7 +609,106 @@
     <t>失败原因7</t>
   </si>
   <si>
+    <t>步骤8</t>
+  </si>
+  <si>
+    <t>请求地址8</t>
+  </si>
+  <si>
+    <t>请求body体8</t>
+  </si>
+  <si>
+    <t>校验8</t>
+  </si>
+  <si>
+    <t>提取参8</t>
+  </si>
+  <si>
+    <t>实际返回8</t>
+  </si>
+  <si>
+    <t>是否通过8</t>
+  </si>
+  <si>
+    <t>失败原因8</t>
+  </si>
+  <si>
+    <t>步骤9</t>
+  </si>
+  <si>
+    <t>请求地址9</t>
+  </si>
+  <si>
+    <t>请求body体9</t>
+  </si>
+  <si>
+    <t>校验9</t>
+  </si>
+  <si>
+    <t>提取参9</t>
+  </si>
+  <si>
+    <t>实际返回9</t>
+  </si>
+  <si>
+    <t>是否通过9</t>
+  </si>
+  <si>
+    <t>失败原因9</t>
+  </si>
+  <si>
+    <t>步骤10</t>
+  </si>
+  <si>
+    <t>请求地址10</t>
+  </si>
+  <si>
+    <t>请求body体10</t>
+  </si>
+  <si>
+    <t>校验10</t>
+  </si>
+  <si>
+    <t>提取参10</t>
+  </si>
+  <si>
+    <t>实际返回10</t>
+  </si>
+  <si>
+    <t>是否通过10</t>
+  </si>
+  <si>
+    <t>失败原因10</t>
+  </si>
+  <si>
+    <t>步骤11</t>
+  </si>
+  <si>
+    <t>请求地址11</t>
+  </si>
+  <si>
+    <t>请求body体11</t>
+  </si>
+  <si>
+    <t>校验11</t>
+  </si>
+  <si>
+    <t>提取参11</t>
+  </si>
+  <si>
+    <t>实际返回11</t>
+  </si>
+  <si>
+    <t>是否通过11</t>
+  </si>
+  <si>
+    <t>失败原因11</t>
+  </si>
+  <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>用例编号</t>
   </si>
   <si>
     <t>接口名称1</t>
@@ -728,9 +813,6 @@
   </si>
   <si>
     <t>"retCode":"00000";"retInfo":"操作成功"</t>
-  </si>
-  <si>
-    <t>accessToken</t>
   </si>
   <si>
     <t>获取家庭列表</t>
@@ -853,6 +935,348 @@
 }</t>
   </si>
   <si>
+    <t>二维码加入家庭</t>
+  </si>
+  <si>
+    <t>获取二维码信息</t>
+  </si>
+  <si>
+    <t>/emuplus/family/v1/family/qrcode</t>
+  </si>
+  <si>
+    <t>{
+ "familyId": "**familyId**",
+ "timeout": 200
+}</t>
+  </si>
+  <si>
+    <t>pattern--joinFamily/(.*)"--qrcode</t>
+  </si>
+  <si>
+    <t>{
+ "username": "**username2**",
+ "password": "**password2**",
+ "captchaToken": "",
+ "captchaAnswer": ""
+}</t>
+  </si>
+  <si>
+    <t>accessToken</t>
+  </si>
+  <si>
+    <t>扫码加入</t>
+  </si>
+  <si>
+    <t>/emuplus/family/v1/family/scan/qrcode</t>
+  </si>
+  <si>
+    <t>{
+ "authCode":"**qrcode**",
+"userFamilyName":"xxxx"
+}</t>
+  </si>
+  <si>
+    <t>"retCode":"00000";"retInfo":"操作成功";"familyId":"**familyId**"</t>
+  </si>
+  <si>
+    <t>获取第一个加入家庭的用户信息</t>
+  </si>
+  <si>
+    <t>/emuplus/family/v1/member/first</t>
+  </si>
+  <si>
+    <t>userId</t>
+  </si>
+  <si>
+    <t>家庭管理员删除家庭成员</t>
+  </si>
+  <si>
+    <t>/emuplus/family/v1/member/destroy</t>
+  </si>
+  <si>
+    <t>{
+ "familyId": "**familyId**",
+ "memberId": "**userId**"
+}</t>
+  </si>
+  <si>
+    <t>新建家庭-扫码分享-权限转让-退出家庭-解散家庭</t>
+  </si>
+  <si>
+    <t>创建家庭</t>
+  </si>
+  <si>
+    <t>/emuplus/family/v1/family/create</t>
+  </si>
+  <si>
+    <t>{
+ "familyName": "NewFamily",
+ "familyPosition": "深圳",
+ "familyLogo":"www.baidu.com",
+ "familyLocation": {
+  "longitude":"114.02597" ,
+  "latitude": "22.54605",
+  "cityCode": "440304"
+ }
+}</t>
+  </si>
+  <si>
+    <t>familyId</t>
+  </si>
+  <si>
+    <t>pattern--joinFamily/(.*?)"--qrcode</t>
+  </si>
+  <si>
+    <t>pattern--"uhomeUserId":(.*?),--uhomeUserId</t>
+  </si>
+  <si>
+    <t>管理员权限转让</t>
+  </si>
+  <si>
+    <t>/emuplus/family/v1/family/manager/change</t>
+  </si>
+  <si>
+    <t>{"familyId":"**familyId**",
+"userId":"**uhomeUserId**"
+}</t>
+  </si>
+  <si>
+    <t>退出家庭</t>
+  </si>
+  <si>
+    <t>/emuplus/family/v1/member/exit</t>
+  </si>
+  <si>
+    <t>解散家庭</t>
+  </si>
+  <si>
+    <t>/emuplus/family/v1/family/destroy</t>
+  </si>
+  <si>
+    <t>删除家庭成员</t>
+  </si>
+  <si>
+    <t>{"familyId":"**familyId**",
+"memberId":"**uhomeUserId**"
+}</t>
+  </si>
+  <si>
+    <t>家庭管理员邀请用户加入家庭</t>
+  </si>
+  <si>
+    <t>/emuplus/family/v1/family/invitation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+ "phone": "13361249890",
+ "familyId": "**familyId**"
+}
+</t>
+  </si>
+  <si>
+    <t>"retCode":"00000";"retInfo":"操作成功"|"retCode":"E31105";"retInfo":"用户已经是家庭成员"</t>
+  </si>
+  <si>
+    <t>家庭管理员退出家庭</t>
+  </si>
+  <si>
+    <t>家庭管理员成员退出家庭</t>
+  </si>
+  <si>
+    <t>/emuplus/family/v1/familyAdmin/exit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"familyId":"**familyId**",
+"userId":"**uhomeUserId**"
+}
+</t>
+  </si>
+  <si>
+    <t>家庭（楼层）</t>
+  </si>
+  <si>
+    <t>添加楼层</t>
+  </si>
+  <si>
+    <t>{
+ "familyName": "NewFamily1",
+ "familyPosition": "深圳",
+ "familyLogo":"www.baidu.com",
+ "familyLocation": {
+  "longitude":"114.02597" ,
+  "latitude": "22.54605",
+  "cityCode": "440304"
+ }
+}</t>
+  </si>
+  <si>
+    <t>/wisdomapi/family/v2/floor/create</t>
+  </si>
+  <si>
+    <t>{
+ "familyId":"**familyId**",
+ "floorOrderId":"5",
+ "floorName":"",
+ "floorLabel":"",
+ "floorLogo":"",
+ "floorLogo":""
+}</t>
+  </si>
+  <si>
+    <t>sha256</t>
+  </si>
+  <si>
+    <t>获取家庭信息（楼层）</t>
+  </si>
+  <si>
+    <t>/wisdomapi/family/v2/family/familyInfo</t>
+  </si>
+  <si>
+    <t>{
+ "familyId":"**familyId**"
+}</t>
+  </si>
+  <si>
+    <t>floorId</t>
+  </si>
+  <si>
+    <t>删除楼层</t>
+  </si>
+  <si>
+    <t>/wisdomapi/family/v2/floor/destroy</t>
+  </si>
+  <si>
+    <t>{
+            "floorId":"**floorId**",
+            "familyId":"**familyId**"
+}</t>
+  </si>
+  <si>
+    <t>楼层添加房间-楼层房间修改</t>
+  </si>
+  <si>
+    <t>楼层添加房间</t>
+  </si>
+  <si>
+    <t>/wisdomapi/family/v2/room/create</t>
+  </si>
+  <si>
+    <t>{
+  "roomName": "AddRoomName",
+   "floorId":"**floorId**",
+   "familyId":"**familyId**",
+   "roomClass":"",
+   "roomLabel":"",
+   "roomLogo":"",
+   "roomPicture":""
+}</t>
+  </si>
+  <si>
+    <t>获取家庭房间列表(含楼层)</t>
+  </si>
+  <si>
+    <t>/wisdomapi/family/v2/family/room/list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+            "floorId":"**floorId**",
+            "familyId":"**familyId**"
+}
+</t>
+  </si>
+  <si>
+    <t>"retCode":"00000";"retInfo":"操作成功";"roomName":"AddRoomName"</t>
+  </si>
+  <si>
+    <t>在楼层修改房间信息</t>
+  </si>
+  <si>
+    <t>/wisdomapi/family/v2/room/modify</t>
+  </si>
+  <si>
+    <t>{
+   "roomId":"**roomId**",
+   "floorId":"**floorId**",
+   "familyId":"**familyId**",
+      "roomName":"newroomname"
+}</t>
+  </si>
+  <si>
+    <t>"retCode":"00000";"retInfo":"操作成功";"roomName":"newroomname";"roomId":"**roomId**"</t>
+  </si>
+  <si>
+    <t>/wisdomapi/family/v2/family/list</t>
+  </si>
+  <si>
+    <t>全屋统计</t>
+  </si>
+  <si>
+    <t>查询家庭房间空气湿度数据</t>
+  </si>
+  <si>
+    <t>查询家庭房间空气四度数据</t>
+  </si>
+  <si>
+    <t>/wisdomapi/house/v1/air/detail</t>
+  </si>
+  <si>
+    <t>{
+familyId:"**familyId**",
+roomId:""
+}</t>
+  </si>
+  <si>
+    <t>首页耗材提醒</t>
+  </si>
+  <si>
+    <t>/wisdomapi/house/v1/consumables/family/summary</t>
+  </si>
+  <si>
+    <t>"retCode":"00000";"retInfo":"操作成功"|"retCode":"69001";"retInfo":"该家庭下的设备都不支持耗材统计"</t>
+  </si>
+  <si>
+    <t>诊断计算</t>
+  </si>
+  <si>
+    <t>/wisdomapi/house/v1/diagnosis/family/calculate</t>
+  </si>
+  <si>
+    <t>{
+ "familyId": "**familyId**",
+ "type":"devConsumables"
+}</t>
+  </si>
+  <si>
+    <t>获取家庭设备聚合耗材信息</t>
+  </si>
+  <si>
+    <t>/wisdomapi/house/v1/consumables/family/aggregation</t>
+  </si>
+  <si>
+    <t>详情家庭耗材列表</t>
+  </si>
+  <si>
+    <t>/wisdomapi/house/v1/consumables/family/list</t>
+  </si>
+  <si>
+    <t>首页耗材提醒V2</t>
+  </si>
+  <si>
+    <t>/wisdomapi/house/v2/consumables/family/aggregation</t>
+  </si>
+  <si>
+    <t>详情家庭耗材列表V2</t>
+  </si>
+  <si>
+    <t>/wisdomapi/house/v2/consumables/family/list</t>
+  </si>
+  <si>
+    <t>获取诊断家庭的故障信息</t>
+  </si>
+  <si>
+    <t>/wisdomapi/house/v1/breakdown/family</t>
+  </si>
+  <si>
     <t>{
  "username": "15192727132",
  "password": "weiwei123",
@@ -879,12 +1303,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -893,11 +1317,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -908,7 +1355,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -922,21 +1369,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1015,6 +1448,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1030,15 +1478,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1055,12 +1502,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1070,13 +1523,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1094,7 +1553,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1106,13 +1589,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1124,49 +1649,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1184,13 +1667,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1202,55 +1703,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1280,21 +1733,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1309,11 +1747,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1351,6 +1795,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1365,17 +1829,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1384,10 +1837,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1396,137 +1849,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1539,11 +1992,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1893,947 +2385,2987 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:CD6"/>
+  <dimension ref="A1:DV23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X3" sqref="X3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A8" sqref="$A8:$XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.25" customWidth="1"/>
-    <col min="2" max="3" width="9.625" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="40.175" customWidth="1"/>
-    <col min="6" max="6" width="12.675" customWidth="1"/>
-    <col min="7" max="7" width="38.925" customWidth="1"/>
-    <col min="8" max="8" width="24.6416666666667" customWidth="1"/>
-    <col min="9" max="9" width="16.9583333333333" customWidth="1"/>
-    <col min="10" max="10" width="12.875" customWidth="1"/>
-    <col min="11" max="11" width="12.75" customWidth="1"/>
-    <col min="12" max="12" width="53.375" customWidth="1"/>
-    <col min="13" max="16" width="24.1083333333333" customWidth="1"/>
-    <col min="17" max="17" width="16.4166666666667" customWidth="1"/>
-    <col min="18" max="18" width="31.25" customWidth="1"/>
-    <col min="19" max="19" width="19.4583333333333" customWidth="1"/>
-    <col min="20" max="20" width="16.9583333333333" customWidth="1"/>
-    <col min="21" max="21" width="12.625" customWidth="1"/>
-    <col min="23" max="23" width="44.25" customWidth="1"/>
-    <col min="24" max="24" width="50.5" customWidth="1"/>
-    <col min="25" max="25" width="20.7166666666667" customWidth="1"/>
-    <col min="26" max="26" width="20.35" customWidth="1"/>
-    <col min="27" max="27" width="17.675" customWidth="1"/>
-    <col min="28" max="28" width="18.75" customWidth="1"/>
-    <col min="29" max="29" width="42.625" customWidth="1"/>
-    <col min="30" max="30" width="30" customWidth="1"/>
-    <col min="33" max="33" width="16.7833333333333" customWidth="1"/>
-    <col min="34" max="34" width="53" customWidth="1"/>
-    <col min="35" max="38" width="29.2833333333333" customWidth="1"/>
-    <col min="39" max="39" width="17.75" customWidth="1"/>
-    <col min="40" max="40" width="34.75" customWidth="1"/>
-    <col min="41" max="41" width="21.9666666666667" customWidth="1"/>
-    <col min="44" max="44" width="13.875" customWidth="1"/>
-    <col min="45" max="45" width="86.6" customWidth="1"/>
-    <col min="46" max="49" width="25.175" customWidth="1"/>
-    <col min="50" max="50" width="13.625" customWidth="1"/>
-    <col min="51" max="51" width="47.25" customWidth="1"/>
-    <col min="52" max="52" width="26.425" customWidth="1"/>
-    <col min="53" max="53" width="16.375" customWidth="1"/>
-    <col min="55" max="55" width="14.75" customWidth="1"/>
-    <col min="56" max="56" width="77.675" customWidth="1"/>
-    <col min="57" max="60" width="20.875" customWidth="1"/>
-    <col min="61" max="61" width="13.75" customWidth="1"/>
-    <col min="62" max="62" width="35.3583333333333" customWidth="1"/>
-    <col min="63" max="63" width="16.125" customWidth="1"/>
-    <col min="67" max="67" width="79.8166666666667" customWidth="1"/>
-    <col min="68" max="71" width="21.375" customWidth="1"/>
-    <col min="72" max="72" width="21.25" customWidth="1"/>
-    <col min="73" max="73" width="21.625" customWidth="1"/>
-    <col min="74" max="74" width="19.75" customWidth="1"/>
-    <col min="75" max="75" width="26.625" customWidth="1"/>
-    <col min="78" max="78" width="31.875" customWidth="1"/>
-    <col min="80" max="80" width="9.81666666666667" customWidth="1"/>
-    <col min="81" max="82" width="11.9666666666667" customWidth="1"/>
+    <col min="1" max="1" width="13.25" style="4" customWidth="1"/>
+    <col min="2" max="3" width="9.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12" style="4" customWidth="1"/>
+    <col min="5" max="5" width="40.175" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.675" style="7" customWidth="1"/>
+    <col min="7" max="7" width="38.925" style="4" customWidth="1"/>
+    <col min="8" max="8" width="24.6416666666667" style="4" customWidth="1"/>
+    <col min="9" max="9" width="16.9583333333333" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12.875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="12.75" style="4" customWidth="1"/>
+    <col min="12" max="12" width="53.375" style="4" customWidth="1"/>
+    <col min="13" max="13" width="39.4583333333333" style="4" customWidth="1"/>
+    <col min="14" max="16" width="24.1083333333333" style="4" customWidth="1"/>
+    <col min="17" max="17" width="16.4166666666667" style="7" customWidth="1"/>
+    <col min="18" max="18" width="31.25" style="4" customWidth="1"/>
+    <col min="19" max="19" width="19.4583333333333" style="4" customWidth="1"/>
+    <col min="20" max="20" width="16.9583333333333" style="4" customWidth="1"/>
+    <col min="21" max="21" width="12.625" style="4" customWidth="1"/>
+    <col min="22" max="22" width="9" style="4"/>
+    <col min="23" max="23" width="44.25" style="4" customWidth="1"/>
+    <col min="24" max="24" width="50.5" style="4" customWidth="1"/>
+    <col min="25" max="25" width="20.7166666666667" style="4" customWidth="1"/>
+    <col min="26" max="26" width="20.35" style="4" customWidth="1"/>
+    <col min="27" max="27" width="17.675" style="4" customWidth="1"/>
+    <col min="28" max="28" width="31.7833333333333" style="7" customWidth="1"/>
+    <col min="29" max="29" width="49.6416666666667" style="4" customWidth="1"/>
+    <col min="30" max="30" width="30" style="4" customWidth="1"/>
+    <col min="31" max="32" width="9" style="4"/>
+    <col min="33" max="33" width="16.7833333333333" style="4" customWidth="1"/>
+    <col min="34" max="34" width="66.0666666666667" style="4" customWidth="1"/>
+    <col min="35" max="35" width="36.25" style="4" customWidth="1"/>
+    <col min="36" max="38" width="29.2833333333333" style="4" customWidth="1"/>
+    <col min="39" max="39" width="17.75" style="7" customWidth="1"/>
+    <col min="40" max="40" width="34.75" style="4" customWidth="1"/>
+    <col min="41" max="41" width="21.9666666666667" style="4" customWidth="1"/>
+    <col min="42" max="43" width="9" style="4"/>
+    <col min="44" max="44" width="13.875" style="4" customWidth="1"/>
+    <col min="45" max="45" width="86.6" style="4" customWidth="1"/>
+    <col min="46" max="46" width="50.175" style="4" customWidth="1"/>
+    <col min="47" max="49" width="25.175" style="4" customWidth="1"/>
+    <col min="50" max="50" width="13.625" style="7" customWidth="1"/>
+    <col min="51" max="51" width="47.25" style="4" customWidth="1"/>
+    <col min="52" max="52" width="26.425" style="4" customWidth="1"/>
+    <col min="53" max="53" width="16.375" style="4" customWidth="1"/>
+    <col min="54" max="54" width="9" style="4"/>
+    <col min="55" max="55" width="14.75" style="4" customWidth="1"/>
+    <col min="56" max="56" width="77.675" style="4" customWidth="1"/>
+    <col min="57" max="60" width="20.875" style="4" customWidth="1"/>
+    <col min="61" max="61" width="13.75" style="7" customWidth="1"/>
+    <col min="62" max="62" width="35.3583333333333" style="4" customWidth="1"/>
+    <col min="63" max="63" width="48.75" style="4" customWidth="1"/>
+    <col min="64" max="66" width="9" style="4"/>
+    <col min="67" max="67" width="79.8166666666667" style="4" customWidth="1"/>
+    <col min="68" max="71" width="21.375" style="4" customWidth="1"/>
+    <col min="72" max="72" width="39.4666666666667" style="7" customWidth="1"/>
+    <col min="73" max="73" width="49.9916666666667" style="4" customWidth="1"/>
+    <col min="74" max="74" width="24.2833333333333" style="4" customWidth="1"/>
+    <col min="75" max="75" width="26.625" style="4" customWidth="1"/>
+    <col min="76" max="77" width="9" style="4"/>
+    <col min="78" max="78" width="42.675" style="4" customWidth="1"/>
+    <col min="79" max="79" width="38.0333333333333" style="4" customWidth="1"/>
+    <col min="80" max="80" width="9.81666666666667" style="4" customWidth="1"/>
+    <col min="81" max="82" width="11.9666666666667" style="4" customWidth="1"/>
+    <col min="83" max="83" width="26.7833333333333" style="7" customWidth="1"/>
+    <col min="84" max="84" width="38.0333333333333" style="4" customWidth="1"/>
+    <col min="85" max="85" width="40.8916666666667" style="4" customWidth="1"/>
+    <col min="86" max="86" width="10.5333333333333" style="4" customWidth="1"/>
+    <col min="87" max="87" width="9" style="4"/>
+    <col min="88" max="88" width="22.1416666666667" style="4" customWidth="1"/>
+    <col min="89" max="89" width="79.4583333333333" style="4" customWidth="1"/>
+    <col min="90" max="90" width="26.6" style="4" customWidth="1"/>
+    <col min="91" max="93" width="9" style="4"/>
+    <col min="94" max="94" width="20.7083333333333" style="7" customWidth="1"/>
+    <col min="95" max="95" width="32.5" style="4" customWidth="1"/>
+    <col min="96" max="96" width="13.75" style="4" customWidth="1"/>
+    <col min="97" max="97" width="12.1416666666667" style="4" customWidth="1"/>
+    <col min="98" max="98" width="9" style="4"/>
+    <col min="99" max="99" width="19.8166666666667" style="4" customWidth="1"/>
+    <col min="100" max="102" width="9" style="4"/>
+    <col min="103" max="103" width="16.425" style="4" customWidth="1"/>
+    <col min="104" max="104" width="19.2833333333333" style="4" customWidth="1"/>
+    <col min="105" max="105" width="9" style="4"/>
+    <col min="106" max="106" width="55.175" style="7" customWidth="1"/>
+    <col min="107" max="107" width="23.0333333333333" style="4" customWidth="1"/>
+    <col min="108" max="108" width="26.0666666666667" style="4" customWidth="1"/>
+    <col min="109" max="109" width="16.25" style="4" customWidth="1"/>
+    <col min="110" max="110" width="17.8583333333333" style="4" customWidth="1"/>
+    <col min="111" max="111" width="9" style="4"/>
+    <col min="112" max="112" width="13.3833333333333" style="4" customWidth="1"/>
+    <col min="113" max="115" width="9" style="4"/>
+    <col min="116" max="116" width="9" style="7"/>
+    <col min="117" max="117" width="41.7833333333333" style="4" customWidth="1"/>
+    <col min="118" max="118" width="14.4583333333333" style="4" customWidth="1"/>
+    <col min="119" max="119" width="9" style="4"/>
+    <col min="120" max="120" width="9.28333333333333" style="4" customWidth="1"/>
+    <col min="121" max="121" width="27.85" style="4" customWidth="1"/>
+    <col min="122" max="124" width="9" style="4"/>
+    <col min="125" max="125" width="21.25" style="4" customWidth="1"/>
+    <col min="126" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:82">
-      <c r="A1" t="s">
+    <row r="1" spans="1:126">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AI1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AK1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AL1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AM1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AN1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AO1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AP1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AR1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AS1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AT1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AU1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AV1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AW1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AX1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AY1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="AZ1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BA1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BB1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BC1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BD1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BE1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BF1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BG1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BH1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BI1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BJ1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BK1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BL1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BM1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BN1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BO1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BP1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BQ1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BR1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BS1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BT1" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BU1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BV1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BW1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BX1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BY1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="BZ1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CA1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CB1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CC1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CD1" s="4" t="s">
         <v>62</v>
+      </c>
+      <c r="CE1" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="CF1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="CG1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="CH1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="CI1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="CJ1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="CK1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="CL1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="CM1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="CN1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="CO1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="CP1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="CQ1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="CR1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="CS1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="CT1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="CU1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="CV1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="CW1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="CX1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="CY1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="CZ1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="DA1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="DB1" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="DC1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="DD1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="DE1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="DF1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="DG1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="DH1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="DI1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="DJ1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="DK1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="DL1" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="DM1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="DN1" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="DO1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="DP1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="DQ1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="DR1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="DS1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="DT1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="DU1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="DV1" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:79">
-      <c r="A2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD2" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM2" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="AN2" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO2" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AQ2" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AS2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="AT2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="AY2" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AZ2" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="BA2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="BB2" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="BC2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="BD2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="BE2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI2" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="BJ2" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="BK2" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="BL2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="BM2" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="BN2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="BO2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="BP2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT2" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="BU2" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BV2" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="BW2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="BX2" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="BY2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="BZ2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="CA2" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" s="4" customFormat="1" ht="108" spans="2:116">
+      <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I2" t="s">
-        <v>67</v>
-      </c>
-      <c r="J2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K2" t="s">
-        <v>69</v>
-      </c>
-      <c r="L2" t="s">
-        <v>70</v>
-      </c>
-      <c r="M2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>72</v>
-      </c>
-      <c r="R2" t="s">
-        <v>65</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="T2" t="s">
-        <v>67</v>
-      </c>
-      <c r="U2" t="s">
-        <v>68</v>
-      </c>
-      <c r="V2" t="s">
-        <v>69</v>
-      </c>
-      <c r="W2" t="s">
-        <v>70</v>
-      </c>
-      <c r="X2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO2" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AZ2" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>67</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>68</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>69</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>70</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>84</v>
-      </c>
-      <c r="BK2" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>67</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>68</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>69</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>70</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>86</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>87</v>
-      </c>
-      <c r="BV2" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>67</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>68</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>69</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>70</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>71</v>
-      </c>
+      <c r="D3" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="T3" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="U3" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB3" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD3" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="AE3" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF3" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="AG3" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH3" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AI3" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="AM3" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="AN3" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="AO3" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="AP3" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AR3" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AS3" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AX3" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="AY3" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AZ3" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="BA3" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="BC3" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD3" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="BI3" s="7"/>
+      <c r="BK3" s="8"/>
+      <c r="BT3" s="7"/>
+      <c r="CE3" s="7"/>
+      <c r="CP3" s="7"/>
+      <c r="DB3" s="7"/>
+      <c r="DL3" s="7"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="108" spans="2:63">
-      <c r="B3" s="1">
+    <row r="4" s="4" customFormat="1" ht="108" spans="2:116">
+      <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="U3" s="5" t="s">
+      <c r="D4" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE3" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF3" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AO3" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AX3" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AY3" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AZ3" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="BA3" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="BC3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BD3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="BK3" s="2"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="108" spans="2:67">
-      <c r="B4" s="1">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD4" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE4" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF4" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AI4" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AM4" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AN4" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="AO4" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="AP4" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AR4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AS4" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AX4" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AY4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AZ4" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="BA4" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="BC4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BD4" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="BI4" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="BJ4" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="BK4" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="BL4" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="BN4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BO4" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="K4" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="T4" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="U4" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC4" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD4" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="AE4" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF4" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="AG4" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH4" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AI4" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="AM4" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="AN4" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO4" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="AP4" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AR4" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AS4" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AX4" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="AY4" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="AZ4" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="BA4" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="BC4" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD4" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="BI4" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="BJ4" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="BK4" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="BL4" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="BN4" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="BO4" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="BT4" s="7"/>
+      <c r="CE4" s="7"/>
+      <c r="CP4" s="7"/>
+      <c r="DB4" s="7"/>
+      <c r="DL4" s="7"/>
     </row>
     <row r="5" ht="108" spans="2:55">
-      <c r="B5">
+      <c r="B5" s="4">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="T5" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="U5" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB5" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC5" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD5" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE5" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG5" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH5" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR5" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="BC5" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" ht="162" spans="2:85">
+      <c r="B6" s="4">
         <v>4</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="U5" s="5" t="s">
+      <c r="D6" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD5" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE5" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG5" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>121</v>
-      </c>
-      <c r="AR5" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BC5" s="1" t="s">
-        <v>95</v>
-      </c>
+      <c r="K6" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="S6" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="T6" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="U6" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB6" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC6" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD6" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE6" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG6" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH6" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AM6" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AN6" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AO6" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="AP6" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="AQ6" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="AR6" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AS6" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="AX6" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="AY6" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="AZ6" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="BA6" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="BC6" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD6" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="BK6" s="8"/>
+      <c r="BV6" s="8"/>
+      <c r="CG6" s="8"/>
     </row>
-    <row r="6" ht="162" spans="2:56">
-      <c r="B6">
+    <row r="7" ht="108" spans="2:89">
+      <c r="B7" s="4">
         <v>5</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D7" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="U6" s="5" t="s">
+      <c r="E7" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AC6" s="1" t="s">
+      <c r="K7" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="S7" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="T7" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="U7" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="W7" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="X7" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB7" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC7" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD7" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="AE7" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG7" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH7" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AI7" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="AM7" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="AD6" s="3" t="s">
+      <c r="AN7" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="AE6" t="s">
-        <v>109</v>
-      </c>
-      <c r="AG6" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AM6" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AN6" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AO6" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="AP6" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AQ6" s="5" t="s">
+      <c r="AO7" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="AP7" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AQ7" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="AR6" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AS6" s="1" t="s">
+      <c r="AR7" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AS7" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AT7" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="AX7" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="AY7" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="AZ7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="BA7" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="BC7" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD7" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="BI7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="BJ7" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="BK7" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="AX6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AY6" s="1" t="s">
+      <c r="BL7" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="BM7" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="BN7" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="BO7" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="BP7" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="BT7" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="BU7" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="BV7" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="BW7" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="BY7" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="BZ7" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="CA7" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="CE7" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="CF7" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="CG7" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="CH7" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="CJ7" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="CK7" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" s="5" customFormat="1" ht="223" customHeight="1" spans="1:116">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4">
+        <v>6</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="AZ6" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BA6" t="s">
-        <v>109</v>
-      </c>
-      <c r="BC6" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BD6" t="s">
-        <v>96</v>
+      <c r="G8" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="S8" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="T8" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="X8" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB8" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC8" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD8" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="AE8" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG8" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH8" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="AI8" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="AM8" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN8" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO8" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="AP8" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="AQ8" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR8" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AS8" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="AT8" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="AX8" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="AY8" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="AZ8" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="BA8" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="BC8" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD8" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="BI8" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="BJ8" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="BK8" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="BL8" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="BM8" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="BN8" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="BO8" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="BT8" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="BU8" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="BV8" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="BW8" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="BY8" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="BZ8" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="CE8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="CF8" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="CG8" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="CH8" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="CJ8" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="CK8" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="CP8" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="CQ8" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="CR8" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="CS8" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="CT8" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="CU8" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="CV8" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="DA8" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="DB8" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="DC8" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="DD8" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="DF8" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="DG8" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="DL8" s="7"/>
+    </row>
+    <row r="9" s="5" customFormat="1" ht="256.5" spans="1:116">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4">
+        <v>7</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="T9" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="V9" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="W9" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="X9" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB9" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC9" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD9" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="AE9" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG9" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH9" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="AI9" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="AM9" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN9" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO9" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="AP9" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="AQ9" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR9" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AS9" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="AT9" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="AX9" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="AY9" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="AZ9" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="BA9" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="BC9" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD9" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="BI9" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="BJ9" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="BK9" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="BL9" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="BM9" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="BN9" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="BO9" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="BT9" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="BU9" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="BV9" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="BW9" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="BY9" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="BZ9" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="CE9" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="CF9" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="CG9" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="CH9" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="CJ9" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="CK9" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="CP9" s="7"/>
+      <c r="DB9" s="7"/>
+      <c r="DL9" s="7"/>
+    </row>
+    <row r="10" ht="108" spans="2:34">
+      <c r="B10" s="4">
+        <v>8</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="S10" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="T10" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="U10" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="W10" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="X10" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB10" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="AC10" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD10" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE10" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG10" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH10" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" s="6" customFormat="1" ht="256.5" spans="1:116">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4">
+        <v>9</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="M11" s="4"/>
+      <c r="Q11" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="S11" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="T11" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="W11" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="X11" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB11" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="AC11" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD11" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE11" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH11" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="AM11" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="AN11" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="AO11" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="AP11" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="AQ11" s="5"/>
+      <c r="AR11" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AS11" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="AT11" s="5"/>
+      <c r="AX11" s="17"/>
+      <c r="BI11" s="17"/>
+      <c r="BT11" s="17"/>
+      <c r="CE11" s="17"/>
+      <c r="CP11" s="17"/>
+      <c r="DB11" s="17"/>
+      <c r="DL11" s="17"/>
+    </row>
+    <row r="12" s="5" customFormat="1" ht="256.5" spans="1:116">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4">
+        <v>10</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="S12" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="T12" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="V12" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="W12" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="X12" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB12" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC12" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD12" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="AE12" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG12" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH12" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="AI12" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="AM12" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN12" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO12" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="AP12" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="AQ12" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR12" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AS12" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="AT12" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="AX12" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="AY12" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="AZ12" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="BA12" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="BC12" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD12" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="BI12" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="BJ12" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="BK12" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="BL12" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="BM12" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="BN12" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="BO12" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="BT12" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="BU12" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="BV12" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="BW12" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="BY12" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="BZ12" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="CE12" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="CF12" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="CG12" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="CH12" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="CI12" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="CJ12" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="CK12" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="CP12" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="CQ12" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="CR12" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="CS12" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="CU12" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="CV12" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="DB12" s="7"/>
+      <c r="DL12" s="7"/>
+    </row>
+    <row r="13" ht="256.5" spans="2:69">
+      <c r="B13" s="4">
+        <v>11</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="S13" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="T13" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="W13" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="X13" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB13" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="AC13" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AD13" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="AE13" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG13" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="AH13" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="AM13" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AN13" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="AO13" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="AP13" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="AQ13" s="5"/>
+      <c r="AR13" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="AS13" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="AT13" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="AU13" s="5"/>
+      <c r="AX13" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="AY13" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="AZ13" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="BA13" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="BB13" s="5"/>
+      <c r="BC13" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="BD13" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="BI13" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="BJ13" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="BK13" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="BL13" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="BM13" s="5"/>
+      <c r="BN13" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="BO13" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="BP13" s="5"/>
+      <c r="BQ13" s="5"/>
+    </row>
+    <row r="14" s="5" customFormat="1" ht="221" customHeight="1" spans="1:116">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5">
+        <v>12</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="S14" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="T14" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="V14" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="W14" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="X14" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB14" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="AC14" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="AD14" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="AE14" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG14" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="AH14" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="AM14" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AN14" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="AO14" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="AP14" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="AR14" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="AS14" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="AT14" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="AX14" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="AY14" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="AZ14" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="BA14" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="BC14" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="BD14" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="BI14" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="BJ14" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="BK14" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="BL14" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="BN14" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="BO14" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="BP14" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="BT14" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="BU14" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="BV14" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="BW14" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="BY14" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="BZ14" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="CE14" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="CF14" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="CG14" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="CH14" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="CJ14" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="CK14" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="CP14" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="CQ14" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="CR14" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="CS14" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="CU14" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="CV14" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="DB14" s="7"/>
+      <c r="DL14" s="7"/>
+    </row>
+    <row r="15" ht="108" spans="2:23">
+      <c r="B15" s="5">
+        <v>13</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="R15" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="V15" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="W15" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" ht="108" spans="2:34">
+      <c r="B16" s="4">
+        <v>15</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="T16" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="V16" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="W16" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="X16" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB16" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC16" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD16" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="AE16" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG16" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="AH16" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" ht="108" spans="2:34">
+      <c r="B17" s="4">
+        <v>16</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="T17" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="V17" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="W17" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="X17" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB17" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC17" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD17" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE17" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG17" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="AH17" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="18" ht="108" spans="2:34">
+      <c r="B18" s="4">
+        <v>17</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="R18" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="T18" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="V18" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="W18" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="X18" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB18" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="AC18" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="AD18" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="AE18" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG18" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="AH18" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" ht="108" spans="2:34">
+      <c r="B19" s="4">
+        <v>18</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="T19" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="V19" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="W19" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="X19" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB19" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC19" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="AD19" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE19" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG19" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="AH19" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" ht="108" spans="2:34">
+      <c r="B20" s="4">
+        <v>19</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="T20" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="V20" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="W20" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="X20" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB20" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="AC20" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="AD20" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE20" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG20" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="AH20" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" ht="108" spans="2:34">
+      <c r="B21" s="4">
+        <v>20</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="T21" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="V21" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="W21" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="X21" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB21" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="AC21" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="AD21" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE21" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG21" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="AH21" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="22" ht="108" spans="2:34">
+      <c r="B22" s="4">
+        <v>21</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="R22" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="T22" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="V22" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="W22" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="X22" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB22" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="AC22" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="AD22" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE22" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG22" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="AH22" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" ht="108" spans="2:34">
+      <c r="B23" s="4">
+        <v>22</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="R23" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="T23" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="V23" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="W23" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="X23" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB23" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="AC23" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="AD23" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE23" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG23" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="AH23" s="5" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2863,198 +5395,198 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>128</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="2:4">
       <c r="B2" s="1" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:4">
       <c r="B3" s="1" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>129</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:4">
       <c r="B4" s="1" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:4">
       <c r="B5" s="1" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" ht="66" customHeight="1" spans="1:4">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>128</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" ht="42" customHeight="1" spans="2:4">
       <c r="B8" s="1" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" ht="41" customHeight="1" spans="2:4">
       <c r="B9" s="1" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>129</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" ht="42" customHeight="1" spans="2:4">
       <c r="B10" s="1" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>130</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" ht="36" customHeight="1" spans="2:4">
       <c r="B11" s="1" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" ht="37" customHeight="1" spans="2:4">
       <c r="B12" s="1" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:4">
       <c r="A14" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:4">
       <c r="B15" s="1" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:3">
       <c r="B16" s="1" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>120</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:4">
       <c r="A18" t="s">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:4">
       <c r="B19" s="1" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" ht="71" customHeight="1" spans="2:4">
       <c r="B20" s="1" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/case/case.xlsx
+++ b/case/case.xlsx
@@ -63,20 +63,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">校验列：结果校验方法：
-传入校验方法的关键字，调用校验模块进行校验，后面的参数是要校验的内容，以键值对的方式写
-</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="BD2" authorId="0">
       <text>
         <r>
@@ -105,7 +91,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS3" authorId="0">
+    <comment ref="BD3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -127,7 +113,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS4" authorId="0">
+    <comment ref="BD8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -149,7 +135,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS6" authorId="0">
+    <comment ref="BD9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -171,7 +157,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS7" authorId="0">
+    <comment ref="BD10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -193,7 +179,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS8" authorId="0">
+    <comment ref="BD11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -215,7 +201,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L9" authorId="0">
+    <comment ref="DG11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -237,7 +223,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS9" authorId="0">
+    <comment ref="BO12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -259,139 +245,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>weiwei:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-接口返回校验，校验上一个接口的返回数据，校验值retcode==0000,</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AS12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>weiwei:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-接口返回校验，校验上一个接口的返回数据，校验值retcode==0000,</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="CV12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>weiwei:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-接口返回校验，校验上一个接口的返回数据，校验值retcode==0000,</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AS13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>weiwei:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-接口返回校验，校验上一个接口的返回数据，校验值retcode==0000,</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BD13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>weiwei:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-接口返回校验，校验上一个接口的返回数据，校验值retcode==0000,</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AS14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>weiwei:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-接口返回校验，校验上一个接口的返回数据，校验值retcode==0000,</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="CV14" authorId="0">
+    <comment ref="DG13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -418,7 +272,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="254">
   <si>
     <t>是否执行</t>
   </si>
@@ -792,10 +646,10 @@
     <t>添加房间</t>
   </si>
   <si>
-    <t>登录</t>
-  </si>
-  <si>
-    <t>/emuplus/secuag/account/v1.0/login</t>
+    <t>初始化家庭</t>
+  </si>
+  <si>
+    <t>xx</t>
   </si>
   <si>
     <t>{
@@ -806,6 +660,12 @@
 }</t>
   </si>
   <si>
+    <t>登录</t>
+  </si>
+  <si>
+    <t>/emuplus/secuag/account/v1.0/login</t>
+  </si>
+  <si>
     <t>POST</t>
   </si>
   <si>
@@ -815,19 +675,25 @@
     <t>"retCode":"00000";"retInfo":"操作成功"</t>
   </si>
   <si>
-    <t>获取家庭列表</t>
-  </si>
-  <si>
-    <t>/emuplus/family/v1/family/list</t>
-  </si>
-  <si>
-    <t>{}</t>
-  </si>
-  <si>
-    <t>V1.6.1</t>
-  </si>
-  <si>
-    <t>familyName;familyPosition;familyId</t>
+    <t>创建家庭</t>
+  </si>
+  <si>
+    <t>/emuplus/family/v1/family/create</t>
+  </si>
+  <si>
+    <t>{
+ "familyName": "NewFamily",
+ "familyPosition": "深圳",
+ "familyLogo":"www.baidu.com",
+ "familyLocation": {
+  "longitude":"114.02597" ,
+  "latitude": "22.54605",
+  "cityCode": "440304"
+ }
+}</t>
+  </si>
+  <si>
+    <t>familyId</t>
   </si>
   <si>
     <t>/emuplus/family/v1/family/room/create</t>
@@ -839,6 +705,9 @@
 }</t>
   </si>
   <si>
+    <t>V1.6.1</t>
+  </si>
+  <si>
     <t>roomId</t>
   </si>
   <si>
@@ -869,6 +738,12 @@
  "familyId": "**familyId**",
  "roomId": "**roomId**"
 }</t>
+  </si>
+  <si>
+    <t>解散家庭</t>
+  </si>
+  <si>
+    <t>/emuplus/family/v1/family/destroy</t>
   </si>
   <si>
     <t>修改房间名称</t>
@@ -888,6 +763,18 @@
   </si>
   <si>
     <t>查看当前用户在家庭设备中分享设备数量</t>
+  </si>
+  <si>
+    <t>获取家庭列表</t>
+  </si>
+  <si>
+    <t>/emuplus/family/v1/family/list</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>familyName;familyPosition;familyId</t>
   </si>
   <si>
     <t>查看当前用户在家庭中分享的设备数量</t>
@@ -923,18 +810,6 @@
     <t>"retCode":"00000";"retInfo":"操作成功";"familyName":"newfamilyname"</t>
   </si>
   <si>
-    <t>{
- "familyName": "魏艾辰",
- "familyPosition": "青岛 城阳",
- "familyId": "**familyId**",
- "familyLocation": {
-  "longitude": 120.37,
-  "latitude": 36.3,
-  "cityCode": "370214"
- }
-}</t>
-  </si>
-  <si>
     <t>二维码加入家庭</t>
   </si>
   <si>
@@ -1003,27 +878,6 @@
     <t>新建家庭-扫码分享-权限转让-退出家庭-解散家庭</t>
   </si>
   <si>
-    <t>创建家庭</t>
-  </si>
-  <si>
-    <t>/emuplus/family/v1/family/create</t>
-  </si>
-  <si>
-    <t>{
- "familyName": "NewFamily",
- "familyPosition": "深圳",
- "familyLogo":"www.baidu.com",
- "familyLocation": {
-  "longitude":"114.02597" ,
-  "latitude": "22.54605",
-  "cityCode": "440304"
- }
-}</t>
-  </si>
-  <si>
-    <t>familyId</t>
-  </si>
-  <si>
     <t>pattern--joinFamily/(.*?)"--qrcode</t>
   </si>
   <si>
@@ -1045,12 +899,6 @@
   </si>
   <si>
     <t>/emuplus/family/v1/member/exit</t>
-  </si>
-  <si>
-    <t>解散家庭</t>
-  </si>
-  <si>
-    <t>/emuplus/family/v1/family/destroy</t>
   </si>
   <si>
     <t>删除家庭成员</t>
@@ -1259,10 +1107,36 @@
     <t>/wisdomapi/house/v1/consumables/family/list</t>
   </si>
   <si>
+    <r>
+      <t>首页耗材提醒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>V2</t>
+    </r>
+  </si>
+  <si>
     <t>首页耗材提醒V2</t>
   </si>
   <si>
     <t>/wisdomapi/house/v2/consumables/family/aggregation</t>
+  </si>
+  <si>
+    <r>
+      <t>详情家庭耗材列表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>V2</t>
+    </r>
   </si>
   <si>
     <t>详情家庭耗材列表V2</t>
@@ -1303,9 +1177,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -1324,19 +1198,11 @@
     </font>
     <font>
       <sz val="9.75"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1347,6 +1213,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1355,7 +1228,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1369,7 +1242,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1448,21 +1328,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1478,14 +1343,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1502,12 +1375,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1523,19 +1402,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1553,19 +1420,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1577,19 +1438,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1607,13 +1468,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1625,31 +1492,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1673,25 +1516,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1703,7 +1540,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1795,26 +1674,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1829,6 +1688,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1837,10 +1716,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1849,137 +1728,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2004,37 +1883,52 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2385,10 +2279,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:DV23"/>
+  <dimension ref="A1:DW27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A8" sqref="$A8:$XFD8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2404,8 +2298,10 @@
     <col min="10" max="10" width="12.875" style="4" customWidth="1"/>
     <col min="11" max="11" width="12.75" style="4" customWidth="1"/>
     <col min="12" max="12" width="53.375" style="4" customWidth="1"/>
-    <col min="13" max="13" width="39.4583333333333" style="4" customWidth="1"/>
-    <col min="14" max="16" width="24.1083333333333" style="4" customWidth="1"/>
+    <col min="13" max="13" width="10.175" style="4" customWidth="1"/>
+    <col min="14" max="14" width="8.56666666666667" style="4" customWidth="1"/>
+    <col min="15" max="15" width="6.24166666666667" style="4" customWidth="1"/>
+    <col min="16" max="16" width="7.85" style="4" customWidth="1"/>
     <col min="17" max="17" width="16.4166666666667" style="7" customWidth="1"/>
     <col min="18" max="18" width="31.25" style="4" customWidth="1"/>
     <col min="19" max="19" width="19.4583333333333" style="4" customWidth="1"/>
@@ -2442,13 +2338,13 @@
     <col min="56" max="56" width="77.675" style="4" customWidth="1"/>
     <col min="57" max="60" width="20.875" style="4" customWidth="1"/>
     <col min="61" max="61" width="13.75" style="7" customWidth="1"/>
-    <col min="62" max="62" width="35.3583333333333" style="4" customWidth="1"/>
+    <col min="62" max="62" width="35.3583333333333" style="8" customWidth="1"/>
     <col min="63" max="63" width="48.75" style="4" customWidth="1"/>
     <col min="64" max="66" width="9" style="4"/>
     <col min="67" max="67" width="79.8166666666667" style="4" customWidth="1"/>
     <col min="68" max="71" width="21.375" style="4" customWidth="1"/>
     <col min="72" max="72" width="39.4666666666667" style="7" customWidth="1"/>
-    <col min="73" max="73" width="49.9916666666667" style="4" customWidth="1"/>
+    <col min="73" max="73" width="49.9916666666667" style="8" customWidth="1"/>
     <col min="74" max="74" width="24.2833333333333" style="4" customWidth="1"/>
     <col min="75" max="75" width="26.625" style="4" customWidth="1"/>
     <col min="76" max="77" width="9" style="4"/>
@@ -2474,8 +2370,8 @@
     <col min="100" max="102" width="9" style="4"/>
     <col min="103" max="103" width="16.425" style="4" customWidth="1"/>
     <col min="104" max="104" width="19.2833333333333" style="4" customWidth="1"/>
-    <col min="105" max="105" width="9" style="4"/>
-    <col min="106" max="106" width="55.175" style="7" customWidth="1"/>
+    <col min="105" max="105" width="9" style="7"/>
+    <col min="106" max="106" width="55.175" style="8" customWidth="1"/>
     <col min="107" max="107" width="23.0333333333333" style="4" customWidth="1"/>
     <col min="108" max="108" width="26.0666666666667" style="4" customWidth="1"/>
     <col min="109" max="109" width="16.25" style="4" customWidth="1"/>
@@ -2484,14 +2380,16 @@
     <col min="112" max="112" width="13.3833333333333" style="4" customWidth="1"/>
     <col min="113" max="115" width="9" style="4"/>
     <col min="116" max="116" width="9" style="7"/>
-    <col min="117" max="117" width="41.7833333333333" style="4" customWidth="1"/>
+    <col min="117" max="117" width="41.7833333333333" style="8" customWidth="1"/>
     <col min="118" max="118" width="14.4583333333333" style="4" customWidth="1"/>
     <col min="119" max="119" width="9" style="4"/>
     <col min="120" max="120" width="9.28333333333333" style="4" customWidth="1"/>
     <col min="121" max="121" width="27.85" style="4" customWidth="1"/>
     <col min="122" max="124" width="9" style="4"/>
     <col min="125" max="125" width="21.25" style="4" customWidth="1"/>
-    <col min="126" max="16384" width="9" style="4"/>
+    <col min="126" max="126" width="9" style="4"/>
+    <col min="127" max="127" width="9" style="8"/>
+    <col min="128" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:126">
@@ -2678,7 +2576,7 @@
       <c r="BI1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="BJ1" s="4" t="s">
+      <c r="BJ1" s="8" t="s">
         <v>48</v>
       </c>
       <c r="BK1" s="4" t="s">
@@ -2711,7 +2609,7 @@
       <c r="BT1" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="BU1" s="4" t="s">
+      <c r="BU1" s="8" t="s">
         <v>56</v>
       </c>
       <c r="BV1" s="4" t="s">
@@ -2807,10 +2705,10 @@
       <c r="CZ1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="DA1" s="4" t="s">
+      <c r="DA1" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="DB1" s="7" t="s">
+      <c r="DB1" s="8" t="s">
         <v>80</v>
       </c>
       <c r="DC1" s="4" t="s">
@@ -2843,7 +2741,7 @@
       <c r="DL1" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="DM1" s="4" t="s">
+      <c r="DM1" s="8" t="s">
         <v>88</v>
       </c>
       <c r="DN1" s="4" t="s">
@@ -2887,7 +2785,7 @@
       <c r="G2" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>99</v>
       </c>
       <c r="I2" s="4" t="s">
@@ -2911,7 +2809,7 @@
       <c r="R2" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="9" t="s">
         <v>106</v>
       </c>
       <c r="T2" s="4" t="s">
@@ -2935,7 +2833,7 @@
       <c r="AC2" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="AD2" s="8" t="s">
+      <c r="AD2" s="9" t="s">
         <v>109</v>
       </c>
       <c r="AE2" s="4" t="s">
@@ -2959,7 +2857,7 @@
       <c r="AN2" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="AO2" s="8" t="s">
+      <c r="AO2" s="9" t="s">
         <v>112</v>
       </c>
       <c r="AP2" s="4" t="s">
@@ -2983,7 +2881,7 @@
       <c r="AY2" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="AZ2" s="8" t="s">
+      <c r="AZ2" s="9" t="s">
         <v>115</v>
       </c>
       <c r="BA2" s="4" t="s">
@@ -3004,10 +2902,10 @@
       <c r="BI2" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="BJ2" s="4" t="s">
+      <c r="BJ2" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="BK2" s="8" t="s">
+      <c r="BK2" s="9" t="s">
         <v>118</v>
       </c>
       <c r="BL2" s="4" t="s">
@@ -3028,10 +2926,10 @@
       <c r="BT2" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="BU2" s="4" t="s">
+      <c r="BU2" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="BV2" s="8" t="s">
+      <c r="BV2" s="9" t="s">
         <v>121</v>
       </c>
       <c r="BW2" s="4" t="s">
@@ -3050,7 +2948,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" s="4" customFormat="1" ht="108" spans="2:116">
+    <row r="3" s="4" customFormat="1" ht="148.5" spans="2:127">
       <c r="B3" s="4">
         <v>1</v>
       </c>
@@ -3060,120 +2958,146 @@
       <c r="E3" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="10" t="s">
         <v>124</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="Q3" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="R3" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="U3" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="S3" s="8" t="s">
+      <c r="V3" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB3" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="T3" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="U3" s="12" t="s">
+      <c r="AC3" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="V3" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="W3" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="X3" s="4" t="s">
+      <c r="AD3" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="AB3" s="7" t="s">
+      <c r="AE3" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH3" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AI3" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AM3" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="AC3" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD3" s="8" t="s">
+      <c r="AN3" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="AE3" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="AF3" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="AG3" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="AH3" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AI3" s="4" t="s">
+      <c r="AO3" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="AM3" s="7" t="s">
+      <c r="AP3" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AQ3" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="AN3" s="4" t="s">
+      <c r="AR3" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="AS3" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AT3" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="AO3" s="8" t="s">
+      <c r="AX3" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="AP3" s="4" t="s">
+      <c r="AY3" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="AR3" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="AS3" s="4" t="s">
+      <c r="AZ3" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="AX3" s="7" t="s">
+      <c r="BA3" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="AY3" s="4" t="s">
+      <c r="BC3" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="BD3" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="AZ3" s="8" t="s">
+      <c r="BI3" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="BA3" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="BC3" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="BD3" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BI3" s="7"/>
-      <c r="BK3" s="8"/>
-      <c r="BT3" s="7"/>
+      <c r="BJ3" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="BK3" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="BL3" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="BN3" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="BO3" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="BT3" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="BU3" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="BV3" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="BW3" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="BX3" s="5"/>
+      <c r="BY3" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="BZ3" s="5" t="s">
+        <v>131</v>
+      </c>
       <c r="CE3" s="7"/>
       <c r="CP3" s="7"/>
-      <c r="DB3" s="7"/>
+      <c r="DA3" s="7"/>
+      <c r="DB3" s="8"/>
       <c r="DL3" s="7"/>
+      <c r="DM3" s="8"/>
+      <c r="DW3" s="8"/>
     </row>
-    <row r="4" s="4" customFormat="1" ht="108" spans="2:116">
+    <row r="4" s="4" customFormat="1" ht="148.5" spans="2:127">
       <c r="B4" s="4">
         <v>2</v>
       </c>
@@ -3181,138 +3105,165 @@
         <v>122</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F4" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>124</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="Q4" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="R4" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="U4" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="K4" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="S4" s="8" t="s">
+      <c r="V4" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB4" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="T4" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="U4" s="12" t="s">
+      <c r="AC4" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="V4" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="W4" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="X4" s="4" t="s">
+      <c r="AD4" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="AB4" s="7" t="s">
+      <c r="AE4" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH4" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AI4" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AM4" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="AC4" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD4" s="8" t="s">
+      <c r="AN4" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="AE4" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="AF4" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="AG4" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="AH4" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AI4" s="4" t="s">
+      <c r="AO4" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="AM4" s="7" t="s">
+      <c r="AP4" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AQ4" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="AR4" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="AS4" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AT4" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="AX4" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="AY4" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="AZ4" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="BA4" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="BC4" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="BD4" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="BI4" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="BJ4" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="BK4" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="BL4" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="BN4" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="BO4" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="BT4" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="BU4" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="AN4" s="4" t="s">
+      <c r="BV4" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="AO4" s="8" t="s">
+      <c r="BW4" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="BY4" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="BZ4" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="CE4" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="AP4" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="AR4" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="AS4" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AX4" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="AY4" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="AZ4" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="BA4" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="BC4" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="BD4" s="4" t="s">
+      <c r="CF4" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="BI4" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="BJ4" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="BK4" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="BL4" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="BN4" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="BO4" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BT4" s="7"/>
-      <c r="CE4" s="7"/>
+      <c r="CG4" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="CH4" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="CI4" s="5"/>
+      <c r="CJ4" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="CK4" s="5" t="s">
+        <v>131</v>
+      </c>
       <c r="CP4" s="7"/>
-      <c r="DB4" s="7"/>
+      <c r="DA4" s="7"/>
+      <c r="DB4" s="8"/>
       <c r="DL4" s="7"/>
+      <c r="DM4" s="8"/>
+      <c r="DW4" s="8"/>
     </row>
-    <row r="5" ht="108" spans="2:55">
+    <row r="5" s="4" customFormat="1" ht="108" spans="2:127">
       <c r="B5" s="4">
         <v>3</v>
       </c>
@@ -3320,79 +3271,92 @@
         <v>122</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="H5" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="H5" s="9" t="s">
         <v>126</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>101</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="S5" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="T5" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="U5" s="12" t="s">
-        <v>133</v>
+        <v>156</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="T5" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="U5" s="14" t="s">
+        <v>138</v>
       </c>
       <c r="V5" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="W5" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="X5" s="4" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="AB5" s="7" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="AC5" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD5" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="AE5" s="11" t="s">
-        <v>127</v>
+        <v>160</v>
+      </c>
+      <c r="AD5" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE5" s="13" t="s">
+        <v>129</v>
       </c>
       <c r="AG5" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AH5" s="4" t="s">
-        <v>153</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="AM5" s="7"/>
       <c r="AR5" s="4" t="s">
-        <v>128</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="AX5" s="7"/>
       <c r="BC5" s="4" t="s">
-        <v>128</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="BI5" s="7"/>
+      <c r="BJ5" s="8"/>
+      <c r="BT5" s="7"/>
+      <c r="BU5" s="8"/>
+      <c r="CE5" s="7"/>
+      <c r="CP5" s="7"/>
+      <c r="DA5" s="7"/>
+      <c r="DB5" s="8"/>
+      <c r="DL5" s="7"/>
+      <c r="DM5" s="8"/>
+      <c r="DW5" s="8"/>
     </row>
-    <row r="6" ht="162" spans="2:85">
+    <row r="6" ht="202.5" spans="2:85">
       <c r="B6" s="4">
         <v>4</v>
       </c>
@@ -3400,91 +3364,77 @@
         <v>122</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="F6" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>124</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="Q6" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="R6" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="S6" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="U6" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="K6" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="S6" s="8" t="s">
+      <c r="V6" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB6" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="T6" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="U6" s="12" t="s">
+      <c r="AC6" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="V6" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="W6" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="X6" s="4" t="s">
+      <c r="AD6" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="AB6" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="AC6" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD6" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AE6" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="AG6" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="AH6" s="4" t="s">
-        <v>129</v>
+      <c r="AE6" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH6" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AI6" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="AM6" s="7" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="AN6" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="AO6" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="AP6" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="AQ6" s="12" t="s">
-        <v>133</v>
+        <v>164</v>
+      </c>
+      <c r="AO6" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="AP6" s="4" t="s">
+        <v>143</v>
       </c>
       <c r="AR6" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AS6" s="4" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="AX6" s="7" t="s">
         <v>155</v>
@@ -3492,23 +3442,58 @@
       <c r="AY6" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="AZ6" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="BA6" s="4" t="s">
-        <v>141</v>
+      <c r="AZ6" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="BA6" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="BB6" s="14" t="s">
+        <v>138</v>
       </c>
       <c r="BC6" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="BD6" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BK6" s="8"/>
-      <c r="BV6" s="8"/>
-      <c r="CG6" s="8"/>
+        <v>166</v>
+      </c>
+      <c r="BI6" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="BJ6" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="BK6" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="BL6" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="BM6" s="5"/>
+      <c r="BN6" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="BO6" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="BP6" s="5"/>
+      <c r="BQ6" s="5"/>
+      <c r="BR6" s="5"/>
+      <c r="BS6" s="5"/>
+      <c r="BT6" s="19"/>
+      <c r="BU6" s="20"/>
+      <c r="BV6" s="11"/>
+      <c r="BW6" s="5"/>
+      <c r="BX6" s="5"/>
+      <c r="BY6" s="5"/>
+      <c r="BZ6" s="5"/>
+      <c r="CA6" s="5"/>
+      <c r="CB6" s="5"/>
+      <c r="CC6" s="5"/>
+      <c r="CD6" s="5"/>
+      <c r="CG6" s="9"/>
     </row>
-    <row r="7" ht="108" spans="2:89">
+    <row r="7" ht="148.5" spans="2:111">
       <c r="B7" s="4">
         <v>5</v>
       </c>
@@ -3516,181 +3501,207 @@
         <v>122</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="F7" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>124</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="Q7" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="R7" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="S7" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="U7" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="V7" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="W7" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB7" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC7" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD7" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE7" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH7" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AI7" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AM7" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="AN7" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="AO7" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="AP7" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AR7" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="AS7" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AT7" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="AX7" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="AY7" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="L7" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="S7" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="T7" s="11" t="s">
+      <c r="AZ7" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="BA7" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="BB7" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="BC7" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="BD7" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="BE7" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="BI7" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="BJ7" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="BK7" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="BL7" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="BN7" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="BO7" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="BT7" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="U7" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="V7" s="4" t="s">
+      <c r="BU7" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="W7" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="X7" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="AB7" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="AC7" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="AD7" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="AE7" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="AG7" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="AH7" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AI7" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="AM7" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="AN7" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="AO7" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="AP7" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AQ7" s="4" t="s">
+      <c r="BV7" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="BW7" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="BX7" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="AR7" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="AS7" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AT7" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="AX7" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="AY7" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="AZ7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="BA7" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="BC7" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="BD7" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="BI7" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="BJ7" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="BK7" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="BL7" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="BM7" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="BN7" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="BO7" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BP7" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="BT7" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="BU7" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="BV7" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="BW7" s="4" t="s">
-        <v>127</v>
-      </c>
       <c r="BY7" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="BZ7" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="CA7" s="4" t="s">
         <v>173</v>
       </c>
       <c r="CE7" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="CF7" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="CG7" s="8" t="s">
-        <v>176</v>
+        <v>179</v>
+      </c>
+      <c r="CG7" s="9" t="s">
+        <v>142</v>
       </c>
       <c r="CH7" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="CJ7" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="CK7" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
+      </c>
+      <c r="CL7" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="CP7" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="CQ7" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="CR7" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="CS7" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="CU7" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="CV7" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="DA7" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="DB7" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="DC7" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="DD7" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="DE7" s="5"/>
+      <c r="DF7" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="DG7" s="5" t="s">
+        <v>131</v>
       </c>
     </row>
-    <row r="8" s="5" customFormat="1" ht="223" customHeight="1" spans="1:116">
+    <row r="8" s="5" customFormat="1" ht="223" customHeight="1" spans="1:127">
       <c r="A8" s="4"/>
       <c r="B8" s="4">
         <v>6</v>
@@ -3699,151 +3710,142 @@
         <v>122</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="F8" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>125</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="Q8" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="R8" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="S8" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="U8" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="V8" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB8" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC8" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD8" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE8" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="AG8" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH8" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AI8" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AM8" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="AN8" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="AO8" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="AP8" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AR8" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AS8" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AT8" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="AX8" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="AY8" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="L8" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="R8" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="S8" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="T8" s="13" t="s">
+      <c r="AZ8" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="BA8" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="BB8" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="BC8" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="BD8" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="BE8" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="BI8" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="BJ8" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="BK8" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="BL8" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="BN8" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="BO8" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="BT8" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="V8" s="5" t="s">
+      <c r="BU8" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="W8" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="X8" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="AB8" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="AC8" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="AD8" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="AE8" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="AG8" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AH8" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="AI8" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="AM8" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="AN8" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="AO8" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="AP8" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="AQ8" s="5" t="s">
+      <c r="BV8" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="BW8" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="BX8" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="AR8" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AS8" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="AT8" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="AX8" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="AY8" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="AZ8" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="BA8" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="BC8" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="BD8" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="BI8" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="BJ8" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="BK8" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="BL8" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="BM8" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="BN8" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="BO8" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="BT8" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="BU8" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="BV8" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="BW8" s="5" t="s">
-        <v>127</v>
-      </c>
       <c r="BY8" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="BZ8" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="CE8" s="7" t="s">
         <v>187</v>
@@ -3851,60 +3853,78 @@
       <c r="CF8" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="CG8" s="9" t="s">
-        <v>140</v>
+      <c r="CG8" s="11" t="s">
+        <v>189</v>
       </c>
       <c r="CH8" s="5" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="CJ8" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="CK8" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="CP8" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="CQ8" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="CR8" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="CS8" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="CU8" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="CV8" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="DA8" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="DB8" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="CK8" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="CP8" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="CQ8" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="CR8" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="CS8" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="CT8" s="5" t="s">
+      <c r="DC8" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="DD8" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="DE8" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="CU8" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="CV8" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="DA8" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="DB8" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="DC8" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="DD8" s="5" t="s">
-        <v>127</v>
-      </c>
       <c r="DF8" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="DG8" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="DL8" s="7"/>
+        <v>131</v>
+      </c>
+      <c r="DL8" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="DM8" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="DN8" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="DO8" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="DQ8" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="DR8" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="DW8" s="20"/>
     </row>
-    <row r="9" s="5" customFormat="1" ht="256.5" spans="1:116">
+    <row r="9" s="5" customFormat="1" ht="148.5" spans="1:127">
       <c r="A9" s="4"/>
       <c r="B9" s="4">
         <v>7</v>
@@ -3913,1460 +3933,1577 @@
         <v>122</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="F9" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>125</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="Q9" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="R9" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="S9" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="U9" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="V9" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="W9" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB9" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC9" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD9" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE9" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="AG9" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH9" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AI9" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AM9" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="AN9" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="AO9" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="AP9" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AR9" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AS9" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AT9" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="AX9" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="AY9" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="L9" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="R9" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="S9" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="T9" s="13" t="s">
+      <c r="AZ9" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="BA9" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="BB9" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="BC9" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="BD9" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="BE9" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="BI9" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="BJ9" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="BK9" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="BL9" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="BN9" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="BO9" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="BT9" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="V9" s="5" t="s">
+      <c r="BU9" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="W9" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="X9" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="AB9" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="AC9" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="AD9" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="AE9" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="AG9" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AH9" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="AI9" s="5" t="s">
+      <c r="BV9" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="BW9" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="BX9" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="BY9" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="BZ9" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="CE9" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="CF9" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="AM9" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="AN9" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="AO9" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="AP9" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="AQ9" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AR9" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AS9" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="AT9" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="AX9" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="AY9" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="AZ9" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="BA9" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="BC9" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="BD9" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="BI9" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="BJ9" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="BK9" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="BL9" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="BM9" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="BN9" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="BO9" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="BT9" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="BU9" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="BV9" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="BW9" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="BY9" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="BZ9" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="CE9" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="CF9" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="CG9" s="9" t="s">
-        <v>140</v>
+      <c r="CG9" s="11" t="s">
+        <v>193</v>
       </c>
       <c r="CH9" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="CJ9" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="CK9" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="CP9" s="7"/>
-      <c r="DB9" s="7"/>
-      <c r="DL9" s="7"/>
+        <v>131</v>
+      </c>
+      <c r="CP9" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="CQ9" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="CR9" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="CS9" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="CU9" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="CV9" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="DA9" s="7"/>
+      <c r="DB9" s="8"/>
+      <c r="DL9" s="19"/>
+      <c r="DM9" s="20"/>
+      <c r="DW9" s="8"/>
     </row>
-    <row r="10" ht="108" spans="2:34">
+    <row r="10" s="6" customFormat="1" ht="148.5" spans="1:127">
+      <c r="A10" s="4"/>
       <c r="B10" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>122</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="F10" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>125</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="Q10" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="R10" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="S10" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="U10" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="K10" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="R10" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="S10" s="8" t="s">
+      <c r="V10" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="X10" s="4"/>
+      <c r="AB10" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="T10" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="U10" s="12" t="s">
+      <c r="AC10" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="V10" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="W10" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="X10" s="4" t="s">
+      <c r="AD10" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="AB10" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="AC10" s="15" t="s">
+      <c r="AE10" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH10" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AI10" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AM10" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="AD10" s="8" t="s">
+      <c r="AN10" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="AE10" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="AG10" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="AH10" s="5" t="s">
+      <c r="AO10" s="9" t="s">
         <v>196</v>
       </c>
+      <c r="AP10" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AQ10" s="4"/>
+      <c r="AR10" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="AS10" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="AX10" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="AY10" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="AZ10" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="BA10" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="BB10" s="5"/>
+      <c r="BC10" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="BD10" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="BE10" s="5"/>
+      <c r="BI10" s="21"/>
+      <c r="BJ10" s="22"/>
+      <c r="BT10" s="21"/>
+      <c r="BU10" s="22"/>
+      <c r="CE10" s="21"/>
+      <c r="CP10" s="21"/>
+      <c r="DA10" s="21"/>
+      <c r="DB10" s="22"/>
+      <c r="DL10" s="21"/>
+      <c r="DM10" s="22"/>
+      <c r="DW10" s="22"/>
     </row>
-    <row r="11" s="6" customFormat="1" ht="256.5" spans="1:116">
+    <row r="11" s="5" customFormat="1" ht="189" spans="1:127">
       <c r="A11" s="4"/>
       <c r="B11" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="E11" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="F11" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="4" t="s">
         <v>125</v>
       </c>
       <c r="H11" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="Q11" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="R11" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="S11" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="U11" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="V11" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="W11" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB11" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC11" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD11" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE11" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="AG11" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH11" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AI11" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AM11" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="AN11" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="AO11" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="AP11" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AR11" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AS11" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AT11" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="AX11" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="AY11" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="L11" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="M11" s="4"/>
-      <c r="Q11" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="R11" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="S11" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="T11" s="13" t="s">
+      <c r="AZ11" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="BA11" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="BB11" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="BC11" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="BD11" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="BE11" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="BI11" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="BJ11" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="BK11" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="BL11" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="BN11" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="BO11" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="BT11" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5" t="s">
+      <c r="BU11" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="W11" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="X11" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="AB11" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="AC11" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="AD11" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE11" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="AF11" s="4"/>
-      <c r="AG11" s="4" t="s">
+      <c r="BV11" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="BW11" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="BX11" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="BY11" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="BZ11" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="CE11" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="CF11" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="CG11" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="CH11" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="CJ11" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="CK11" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="CP11" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="CQ11" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="AH11" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="AM11" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="AN11" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="AO11" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="AP11" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="AQ11" s="5"/>
-      <c r="AR11" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AS11" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="AT11" s="5"/>
-      <c r="AX11" s="17"/>
-      <c r="BI11" s="17"/>
-      <c r="BT11" s="17"/>
-      <c r="CE11" s="17"/>
-      <c r="CP11" s="17"/>
-      <c r="DB11" s="17"/>
-      <c r="DL11" s="17"/>
+      <c r="CR11" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="CS11" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="CT11" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="CU11" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="CV11" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="DA11" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="DB11" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="DC11" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="DD11" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="DF11" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="DG11" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="DL11" s="19"/>
+      <c r="DM11" s="20"/>
+      <c r="DW11" s="20"/>
     </row>
-    <row r="12" s="5" customFormat="1" ht="256.5" spans="1:116">
-      <c r="A12" s="4"/>
+    <row r="12" s="4" customFormat="1" ht="148.5" spans="2:127">
       <c r="B12" s="4">
-        <v>10</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="F12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="4" t="s">
         <v>125</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="Q12" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="R12" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="S12" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="T12" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="U12" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="K12" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="R12" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="S12" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="T12" s="13" t="s">
-        <v>127</v>
-      </c>
       <c r="V12" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="W12" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="X12" s="5" t="s">
-        <v>181</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
       <c r="AB12" s="7" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="AC12" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="AD12" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="AE12" s="5" t="s">
-        <v>141</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AD12" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="AE12" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="AF12" s="5"/>
       <c r="AG12" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AH12" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AI12" s="5" t="s">
-        <v>182</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AJ12" s="4"/>
+      <c r="AK12" s="4"/>
+      <c r="AL12" s="4"/>
       <c r="AM12" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="AN12" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="AO12" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="AP12" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AQ12" s="4"/>
+      <c r="AR12" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="AS12" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AT12" s="4"/>
+      <c r="AU12" s="4"/>
+      <c r="AV12" s="4"/>
+      <c r="AW12" s="4"/>
+      <c r="AX12" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="AY12" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="AZ12" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="BA12" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="BB12" s="5"/>
+      <c r="BC12" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="BD12" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="BE12" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="BF12" s="5"/>
+      <c r="BG12" s="4"/>
+      <c r="BH12" s="4"/>
+      <c r="BI12" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="BJ12" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="BK12" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="BL12" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="BM12" s="5"/>
+      <c r="BN12" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="BO12" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="BP12" s="4"/>
+      <c r="BQ12" s="4"/>
+      <c r="BR12" s="4"/>
+      <c r="BS12" s="4"/>
+      <c r="BT12" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="BU12" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="BV12" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="BW12" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="BX12" s="5"/>
+      <c r="BY12" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="BZ12" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="CA12" s="5"/>
+      <c r="CB12" s="5"/>
+      <c r="CC12" s="4"/>
+      <c r="CD12" s="4"/>
+      <c r="CE12" s="7"/>
+      <c r="CF12" s="4"/>
+      <c r="CG12" s="4"/>
+      <c r="CH12" s="4"/>
+      <c r="CI12" s="4"/>
+      <c r="CJ12" s="4"/>
+      <c r="CK12" s="4"/>
+      <c r="CL12" s="4"/>
+      <c r="CM12" s="4"/>
+      <c r="CN12" s="4"/>
+      <c r="CO12" s="4"/>
+      <c r="CP12" s="7"/>
+      <c r="CQ12" s="4"/>
+      <c r="CR12" s="4"/>
+      <c r="CS12" s="4"/>
+      <c r="CT12" s="4"/>
+      <c r="CU12" s="4"/>
+      <c r="CV12" s="4"/>
+      <c r="CW12" s="4"/>
+      <c r="CX12" s="4"/>
+      <c r="CY12" s="4"/>
+      <c r="CZ12" s="4"/>
+      <c r="DA12" s="7"/>
+      <c r="DB12" s="8"/>
+      <c r="DC12" s="4"/>
+      <c r="DD12" s="4"/>
+      <c r="DE12" s="4"/>
+      <c r="DF12" s="4"/>
+      <c r="DG12" s="4"/>
+      <c r="DH12" s="4"/>
+      <c r="DI12" s="4"/>
+      <c r="DJ12" s="4"/>
+      <c r="DK12" s="4"/>
+      <c r="DL12" s="7"/>
+      <c r="DM12" s="8"/>
+      <c r="DW12" s="8"/>
+    </row>
+    <row r="13" s="5" customFormat="1" ht="221" customHeight="1" spans="1:127">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5">
+        <v>12</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AN12" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="AO12" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="AP12" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="AQ12" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AR12" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AS12" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="AT12" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="AX12" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="AY12" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="AZ12" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="BA12" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="BC12" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="BD12" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="BI12" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="BJ12" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="BK12" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="BL12" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="BM12" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="BN12" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="BO12" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="BT12" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="BU12" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="BV12" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="BW12" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="BY12" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="BZ12" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="CE12" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="CF12" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="CG12" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="CH12" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="CI12" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="CJ12" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="CK12" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="CP12" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="CQ12" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="CR12" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="CS12" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="CU12" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="CV12" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="DB12" s="7"/>
-      <c r="DL12" s="7"/>
-    </row>
-    <row r="13" ht="256.5" spans="2:69">
-      <c r="B13" s="4">
-        <v>11</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="4" t="s">
         <v>125</v>
       </c>
       <c r="H13" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="Q13" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="R13" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="S13" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="T13" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="U13" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="V13" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="W13" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB13" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC13" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD13" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="AE13" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="AG13" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH13" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AI13" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AM13" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="AN13" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="AO13" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="AP13" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AR13" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="AS13" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AX13" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="AY13" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="AZ13" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="BA13" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="BC13" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="BD13" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="BE13" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="BI13" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="BJ13" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="BK13" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="BL13" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="BN13" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="BO13" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="BT13" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="BU13" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="BV13" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="BW13" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="BY13" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="BZ13" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="CA13" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="CE13" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="CF13" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="CG13" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="CH13" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="CJ13" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="CK13" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="CP13" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="CQ13" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="CR13" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="CS13" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="CU13" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="CV13" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="DA13" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="DB13" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="DC13" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="DD13" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="DF13" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="DG13" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="DL13" s="19"/>
+      <c r="DM13" s="20"/>
+      <c r="DW13" s="20"/>
+    </row>
+    <row r="14" ht="108" spans="2:23">
+      <c r="B14" s="5">
+        <v>13</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="L13" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="R13" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="S13" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="T13" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="W13" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="X13" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="AB13" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="AC13" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="AD13" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="AE13" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="AG13" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="AH13" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="AM13" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="AN13" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="AO13" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="AP13" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="AQ13" s="5"/>
-      <c r="AR13" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="AS13" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="AT13" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="AU13" s="5"/>
-      <c r="AX13" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="AY13" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="AZ13" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="BA13" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="BB13" s="5"/>
-      <c r="BC13" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="BD13" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="BI13" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="BJ13" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="BK13" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="BL13" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="BM13" s="5"/>
-      <c r="BN13" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="BO13" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="BP13" s="5"/>
-      <c r="BQ13" s="5"/>
-    </row>
-    <row r="14" s="5" customFormat="1" ht="221" customHeight="1" spans="1:116">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5">
-        <v>12</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="11" t="s">
         <v>126</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>101</v>
       </c>
       <c r="K14" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="R14" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="T14" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="V14" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="W14" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" ht="108" spans="2:34">
+      <c r="B15" s="4">
+        <v>15</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="L14" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="R14" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="S14" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="T14" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="V14" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="W14" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="X14" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="AB14" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="AC14" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="AD14" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="AE14" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="AG14" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="AH14" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="AM14" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="AN14" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="AO14" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="AP14" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR14" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="AS14" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="AT14" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="AX14" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="AY14" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="AZ14" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="BA14" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="BC14" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="BD14" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="BI14" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="BJ14" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="BK14" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="BL14" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="BN14" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="BO14" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="BP14" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="BT14" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="BU14" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="BV14" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="BW14" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="BY14" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="BZ14" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="CE14" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="CF14" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="CG14" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="CH14" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="CJ14" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="CK14" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="CP14" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="CQ14" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="CR14" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="CS14" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="CU14" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="CV14" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="DB14" s="7"/>
-      <c r="DL14" s="7"/>
-    </row>
-    <row r="15" ht="108" spans="2:23">
-      <c r="B15" s="5">
-        <v>13</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="11" t="s">
         <v>126</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J15" s="5" t="s">
         <v>101</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="R15" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="T15" s="4" t="s">
-        <v>127</v>
+        <v>155</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="T15" s="16" t="s">
+        <v>129</v>
       </c>
       <c r="V15" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="W15" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
+      </c>
+      <c r="X15" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB15" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="AC15" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="AD15" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="AE15" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AG15" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="AH15" s="5" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="16" ht="108" spans="2:34">
       <c r="B16" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="E16" s="4" t="s">
         <v>228</v>
       </c>
+      <c r="E16" s="12" t="s">
+        <v>233</v>
+      </c>
       <c r="F16" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="H16" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H16" s="11" t="s">
         <v>126</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>101</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="R16" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="T16" s="13" t="s">
-        <v>127</v>
+        <v>227</v>
+      </c>
+      <c r="T16" s="16" t="s">
+        <v>129</v>
       </c>
       <c r="V16" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="W16" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="X16" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="AB16" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="AC16" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="AD16" s="8" t="s">
-        <v>231</v>
+        <v>135</v>
+      </c>
+      <c r="AB16" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC16" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="AD16" s="9" t="s">
+        <v>142</v>
       </c>
       <c r="AE16" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AG16" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AH16" s="5" t="s">
-        <v>129</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" ht="108" spans="2:34">
       <c r="B17" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>232</v>
+        <v>228</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>236</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="H17" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H17" s="11" t="s">
         <v>126</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J17" s="5" t="s">
         <v>101</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="T17" s="13" t="s">
-        <v>127</v>
+        <v>227</v>
+      </c>
+      <c r="T17" s="16" t="s">
+        <v>129</v>
       </c>
       <c r="V17" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="W17" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="X17" s="4" t="s">
-        <v>181</v>
+        <v>135</v>
       </c>
       <c r="AB17" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="AC17" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="AD17" s="8" t="s">
-        <v>140</v>
+        <v>236</v>
+      </c>
+      <c r="AC17" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="AD17" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="AE17" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AG17" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AH17" s="5" t="s">
-        <v>234</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" ht="108" spans="2:34">
       <c r="B18" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>235</v>
+        <v>228</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>239</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="H18" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H18" s="11" t="s">
         <v>126</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J18" s="5" t="s">
         <v>101</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="R18" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="T18" s="13" t="s">
-        <v>127</v>
+        <v>227</v>
+      </c>
+      <c r="T18" s="16" t="s">
+        <v>129</v>
       </c>
       <c r="V18" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="W18" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="X18" s="4" t="s">
-        <v>181</v>
+        <v>135</v>
       </c>
       <c r="AB18" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="AC18" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="AD18" s="8" t="s">
-        <v>237</v>
+        <v>240</v>
+      </c>
+      <c r="AD18" s="9" t="s">
+        <v>142</v>
       </c>
       <c r="AE18" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AG18" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AH18" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" ht="108" spans="2:34">
       <c r="B19" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>238</v>
+        <v>228</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>241</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="H19" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H19" s="11" t="s">
         <v>126</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J19" s="5" t="s">
         <v>101</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="R19" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="T19" s="13" t="s">
-        <v>127</v>
+        <v>227</v>
+      </c>
+      <c r="T19" s="16" t="s">
+        <v>129</v>
       </c>
       <c r="V19" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="W19" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="X19" s="4" t="s">
-        <v>181</v>
+        <v>135</v>
       </c>
       <c r="AB19" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="AC19" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="AD19" s="8" t="s">
-        <v>140</v>
+        <v>241</v>
+      </c>
+      <c r="AC19" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="AD19" s="9" t="s">
+        <v>142</v>
       </c>
       <c r="AE19" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AG19" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AH19" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" ht="108" spans="2:34">
       <c r="B20" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>240</v>
+        <v>228</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>243</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="H20" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H20" s="11" t="s">
         <v>126</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J20" s="5" t="s">
         <v>101</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="R20" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="T20" s="13" t="s">
-        <v>127</v>
+        <v>227</v>
+      </c>
+      <c r="T20" s="16" t="s">
+        <v>129</v>
       </c>
       <c r="V20" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="W20" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="X20" s="4" t="s">
-        <v>181</v>
+        <v>135</v>
       </c>
       <c r="AB20" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="AC20" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="AD20" s="8" t="s">
-        <v>140</v>
+        <v>244</v>
+      </c>
+      <c r="AC20" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="AD20" s="9" t="s">
+        <v>142</v>
       </c>
       <c r="AE20" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AG20" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AH20" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" ht="108" spans="2:34">
       <c r="B21" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>242</v>
+        <v>228</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>246</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="H21" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H21" s="11" t="s">
         <v>126</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J21" s="5" t="s">
         <v>101</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="R21" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="T21" s="13" t="s">
-        <v>127</v>
+        <v>227</v>
+      </c>
+      <c r="T21" s="16" t="s">
+        <v>129</v>
       </c>
       <c r="V21" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="W21" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="X21" s="4" t="s">
-        <v>181</v>
+        <v>135</v>
       </c>
       <c r="AB21" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="AC21" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="AD21" s="8" t="s">
-        <v>140</v>
+        <v>248</v>
+      </c>
+      <c r="AD21" s="9" t="s">
+        <v>142</v>
       </c>
       <c r="AE21" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AG21" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AH21" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" ht="108" spans="2:34">
       <c r="B22" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>244</v>
+        <v>228</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>249</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="H22" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H22" s="11" t="s">
         <v>126</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J22" s="5" t="s">
         <v>101</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="R22" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="T22" s="13" t="s">
-        <v>127</v>
+        <v>227</v>
+      </c>
+      <c r="T22" s="16" t="s">
+        <v>129</v>
       </c>
       <c r="V22" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="W22" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="X22" s="4" t="s">
-        <v>181</v>
+        <v>135</v>
       </c>
       <c r="AB22" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="AC22" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="AD22" s="8" t="s">
-        <v>140</v>
+        <v>250</v>
+      </c>
+      <c r="AD22" s="9" t="s">
+        <v>142</v>
       </c>
       <c r="AE22" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AG22" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AH22" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
-    <row r="23" ht="108" spans="2:34">
-      <c r="B23" s="4">
-        <v>22</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="R23" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="T23" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="V23" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="W23" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="X23" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="AB23" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="AC23" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="AD23" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="AE23" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="AG23" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="AH23" s="5" t="s">
-        <v>129</v>
-      </c>
+    <row r="23" ht="14.25" spans="5:24">
+      <c r="E23" s="12"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+    </row>
+    <row r="24" ht="14.25" spans="5:24">
+      <c r="E24" s="12"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+    </row>
+    <row r="25" ht="14.25" spans="5:24">
+      <c r="E25" s="12"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+    </row>
+    <row r="26" ht="14.25" spans="5:24">
+      <c r="E26" s="12"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="4"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+    </row>
+    <row r="27" spans="5:23">
+      <c r="E27" s="12"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="9"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5398,24 +5535,24 @@
         <v>123</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="2:4">
       <c r="B2" s="1" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:4">
@@ -5423,57 +5560,57 @@
         <v>123</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:4">
       <c r="B4" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:4">
       <c r="B5" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" ht="66" customHeight="1" spans="1:4">
       <c r="A7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" ht="42" customHeight="1" spans="2:4">
       <c r="B8" s="1" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" ht="41" customHeight="1" spans="2:4">
@@ -5481,54 +5618,54 @@
         <v>123</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" ht="42" customHeight="1" spans="2:4">
       <c r="B10" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" ht="36" customHeight="1" spans="2:4">
       <c r="B11" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" ht="37" customHeight="1" spans="2:4">
       <c r="B12" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:4">
       <c r="A14" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>126</v>
@@ -5536,32 +5673,32 @@
     </row>
     <row r="15" customHeight="1" spans="2:4">
       <c r="B15" s="1" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:3">
       <c r="B16" s="1" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:4">
       <c r="A18" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>126</v>
@@ -5569,24 +5706,24 @@
     </row>
     <row r="19" customHeight="1" spans="2:4">
       <c r="B19" s="1" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" ht="71" customHeight="1" spans="2:4">
       <c r="B20" s="1" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
